--- a/va_facility_data_2025-02-20/Show Low VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Show%20Low%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Show Low VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Show%20Low%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1ba1fbc9f6ea4e3385047ad10f412ea4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R898471c8b8aa4847a6bf3572a96b1477"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R51f0453257954404aa6f2f632e9c70e5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1201f45450e748b3b89b131509333c78"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Reb7e19575b1e45e38a69cd0a5d9c746a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra761ab964e1a4e3fb58d298f1e4404aa"/>
   </x:sheets>
 </x:workbook>
 </file>
